--- a/X7-8_Switch_Configuration.xlsx
+++ b/X7-8_Switch_Configuration.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Consoli\Documents\cs\scripts\brocade-rest-api-applications\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAD3E4B-1F8D-4232-9C7D-B7C1EC08B0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C3EE92-14A5-452A-A7BF-767A80F6BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="20355" windowHeight="11085" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="315" windowWidth="20400" windowHeight="10575" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="57" r:id="rId1"/>
-    <sheet name="Slot_x_Terms" sheetId="60" r:id="rId2"/>
+    <sheet name="Instructions" sheetId="62" r:id="rId1"/>
+    <sheet name="Slot_x_Terms" sheetId="63" r:id="rId2"/>
     <sheet name="Chassis" sheetId="54" r:id="rId3"/>
     <sheet name="Switch_x" sheetId="50" r:id="rId4"/>
     <sheet name="Slot 3" sheetId="24" r:id="rId5"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="378">
   <si>
     <t>Port</t>
   </si>
@@ -928,32 +928,6 @@
   </si>
   <si>
     <t>Names the chassis. CLI equivalent: chassisname</t>
-  </si>
-  <si>
-    <t>This workbook was origionally intended to help FICON customers with CHPID path planning. It was then later used as input to switcy_config.py to configure switches for both mainframe and distributed environments. The CLI_Bind tab and link addresses on the Slot x sheets are typically ignored in distributed environments.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 4 FICON Tip: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When possible, the channel and control units should all be on different Virtual Channels (VC) when cascaded. The default is the meduim Quality of Service (QoS) zone. Typically, the default medium QoS zone is used. Setting up QoS zones is independant of anything associated with this workbook. The VCs and QoS zones are provided to help channel path planners balance traffic across VCs.</t>
-    </r>
   </si>
   <si>
     <t>Port Name</t>
@@ -1057,6 +1031,186 @@
     </r>
   </si>
   <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>The recommended best practice is to name fabrics. In mainframe environments, this is not used in MVS or in HCD but this may appear in logs so naming the fabric is still recommended. Most mainframe customers with single switch fabrics give the fabric the same name as the switch + "_fab".</t>
+  </si>
+  <si>
+    <t>In FICON, the domain ID is the high byte of the 2-byte address. In mainframe environments, the recommended best practice is to set the DID to match the Switch ID in HCD.</t>
+  </si>
+  <si>
+    <t>Typically not used in mainframe environments. The login banner is displayed everytime someone logs in via the CLI using an SSH session. This banner is not displayed in SANnav or via any System Automation tools.</t>
+  </si>
+  <si>
+    <t>Typically "Yes" for FICON switches or switches configured for AIX environments. Typically "No" for all other environments. The only reason to use "No" for a FICON switch is partial configurations whereby additional ports will be added at a later date. FOS will return an error for switches defined as FICON switches if you attempt to enable the ports before binding the port addresses.</t>
+  </si>
+  <si>
+    <t>Routing Policy</t>
+  </si>
+  <si>
+    <t>Typically "default". The default for a FICON switch is DBR. If FiDR is desired, set this to EBR. The default switch for all other switch types is EBR.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Enable CUP</t>
+  </si>
+  <si>
+    <t>FICON only. Must be "Yes" if CUP is defined on any channel connected to this switch.</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>Port Name Format</t>
+  </si>
+  <si>
+    <t>Only applicable if "Port Name" is "dynamic". Search the FOS Admin Guide for "Dynamic Port Name" for an explanation of "dynamic" or the Rest API Guide for "dynamic-portname-format".</t>
+  </si>
+  <si>
+    <t>Switch wide setting for port naming conventions. Typically "off" or "ficon -n" for FICON. "off": Disable switch wide port naming conventions and set the port name to the name specified in the "Port Name" column on the Slot sheets if a port name was specified. "default": The port name is the port index. "fdmi" sets the port name to FDMI host name.  "dynamic": See "Port Name Format". "open -n" same as "off" except all ports are named. If a port name was not specified then the port name is an empty string. "ficon -n" is the same as "open -n" except that a user alert is displayed if the number of characters is greater than 24. Although FOS allows up to 128 characters for the port name, FMS (aka CUP) is limited to 24 characters.</t>
+  </si>
+  <si>
+    <t>ge9</t>
+  </si>
+  <si>
+    <t>ge8</t>
+  </si>
+  <si>
+    <t>ge7</t>
+  </si>
+  <si>
+    <t>ge6</t>
+  </si>
+  <si>
+    <t>ge5</t>
+  </si>
+  <si>
+    <t>ge4</t>
+  </si>
+  <si>
+    <t>ge3</t>
+  </si>
+  <si>
+    <t>ge2</t>
+  </si>
+  <si>
+    <t>ge1</t>
+  </si>
+  <si>
+    <t>ge0</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The domain ID in hex. This must match the domain ID used on the "Switch_x" sheets for the FID. From the bottom up, this has been prefilled to match the DID from the previous port. It is common to set the DID for the first port (lowest port number) using an Excel "=" to the DID cell on the corresponding "Switch_x" sheet. The template is seeded with 1 for port 0 of the first slot. You should only need to change this for the first port of each logical switch.</t>
+  </si>
+  <si>
+    <t>DO NOT CHANGE. Since port addresses can change and the port numbering scheme can change based on switch type, the port index gives FOS a consistent way to reference physical ports.</t>
+  </si>
+  <si>
+    <t>DO NOT CHANGE. The link address is only relevant to mainframe SAN administrators. This field is automatically calculated. The most significant byte is the DID in hex. The least significant byte is the port address.</t>
+  </si>
+  <si>
+    <t>This is the Fabric ID of the corresponding switch on one of the "Switch_x" sheets. If there is no correspnding FID number on a "Switch_x" sheet, the port is ignored (no changes are made to the port). Ports with a corresponding "Switch_x" worksheet are moved to the logical switch with the same FID. Note that ports must be disabled and set to the factory defalult state before moving them. This is a FOS requirement. Similar to the DID, cells are prefilled with the previous cell value, so you will need to modify the FID number for each new logical switch.</t>
+  </si>
+  <si>
+    <t>This is a comment field only. When using create_swconfig.py, it is pre-filled with RNID data for mainframes or a hash of name server and FDMI information for open systems.</t>
+  </si>
+  <si>
+    <t>Low Qos VC, Med Qos VC, and High Qos VC</t>
+  </si>
+  <si>
+    <t>DO NOT CHANGE. This is the virtual channel that will be used for the port. Consult the FOS Administrators Guide for details regarding virtual channels. Virtual channel information is useful for planning and evaluating virtual channel usage over ISLs. Typically, SAN administrators plan connections to the without giving the virtual channel usage any thought and only analyze virtual channel usage when ISL congestion is observed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FICON Tip: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When possible, the channel and control units should all be on different Virtual Channels (VC) when cascaded. The default is the meduim Quality of Service (QoS) zone. Typically, the default medium QoS zone is used. Setting up QoS zones is independant of anything associated with this workbook. The VCs and QoS zones are provided to help channel path planners balance traffic across VCs.</t>
+    </r>
+  </si>
+  <si>
+    <t>Typically, only used in FICON (mainframe) environments to bind the link address to a port when the “Switch Type” on the corresponding “Switch_x” worksheet is “ficon”. This is the middle byte of the fibre channel address which is the least significant byte of the link address. Typically, ports are contiguous with port addresses incrementing by 1 with the port address set to 0 for the lowest port number in the logical switch. The mainframe I/O subsystem does not support addresses greater than the maximum number of ports supported by the switch.</t>
+  </si>
+  <si>
+    <t>DO NOT CHANGE. The port number without the slot indicator. Note that the slot number is determined by the sheet header.</t>
+  </si>
+  <si>
+    <t>Intended for use with switcy_config.py and switcy_config_cli.py.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Make a copy of this worksheet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Define the switch. Make copies of this sheet to define multiple switches. All sheet names begining with "Switch_" are assmued to be a switch configuration worksheet. The "x" in tab name "Switch_x" can be replaced with whatever you want.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1076,221 +1230,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Fill out the "Slot x" Worksheets. If the slot is not occupied in the director, set the FID for those ports to the default FID, typically 128. The slot worksheets are completely independant of the switch worksheets. Cells in the "Attached Device" column are effectively comments in the workbook. They are not used by any macros in this Workbook or scripts that read the workbook.</t>
+      <t>: Fill out the "Slot 0" Worksheet. See the "Slot_x_Terms" tab for details.  Only ports with a FID that matches a FID on a “Switch_x” worksheet are acted on. All other ports are ignored.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CLI_Bind:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Typically not used. The content is generated using Excel formulas. It is for complex (non-sequential) addressing used with FICON protocol. To convert macros on this tab to the displayed text, either print to PDF or insert a new sheet and copy all the cells and paste using the "paste values" option.</t>
-    </r>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>The recommended best practice is to name fabrics. In mainframe environments, this is not used in MVS or in HCD but this may appear in logs so naming the fabric is still recommended. Most mainframe customers with single switch fabrics give the fabric the same name as the switch + "_fab".</t>
-  </si>
-  <si>
-    <t>In FICON, the domain ID is the high byte of the 2-byte address. In mainframe environments, the recommended best practice is to set the DID to match the Switch ID in HCD.</t>
-  </si>
-  <si>
-    <t>Typically not used in mainframe environments. The login banner is displayed everytime someone logs in via the CLI using an SSH session. This banner is not displayed in SANnav or via any System Automation tools.</t>
-  </si>
-  <si>
-    <t>Typically "Yes" for FICON switches or switches configured for AIX environments. Typically "No" for all other environments. The only reason to use "No" for a FICON switch is partial configurations whereby additional ports will be added at a later date. FOS will return an error for switches defined as FICON switches if you attempt to enable the ports before binding the port addresses.</t>
-  </si>
-  <si>
-    <t>Routing Policy</t>
-  </si>
-  <si>
-    <t>Typically "default". The default for a FICON switch is DBR. If FiDR is desired, set this to EBR. The default switch for all other switch types is EBR.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Enable CUP</t>
-  </si>
-  <si>
-    <t>FICON only. Must be "Yes" if CUP is defined on any channel connected to this switch.</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>Port Name Format</t>
-  </si>
-  <si>
-    <t>Only applicable if "Port Name" is "dynamic". Search the FOS Admin Guide for "Dynamic Port Name" for an explanation of "dynamic" or the Rest API Guide for "dynamic-portname-format".</t>
-  </si>
-  <si>
-    <t>Switch wide setting for port naming conventions. Typically "off" or "ficon -n" for FICON. "off": Disable switch wide port naming conventions and set the port name to the name specified in the "Port Name" column on the Slot sheets if a port name was specified. "default": The port name is the port index. "fdmi" sets the port name to FDMI host name.  "dynamic": See "Port Name Format". "open -n" same as "off" except all ports are named. If a port name was not specified then the port name is an empty string. "ficon -n" is the same as "open -n" except that a user alert is displayed if the number of characters is greater than 24. Although FOS allows up to 128 characters for the port name, FMS (aka CUP) is limited to 24 characters.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Make a copy of this workbook</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Define the switch. Make copies of the sheet to define multiple switches. All sheet names begining with "Switch_" are assmued to be a switch configuration worksheet. The "x" in tab name "Switch_x" can be replaced with whatever you want.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 4 Alternate Board Tip: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The default "Slot x" tabs are for 48 port cards. For 64 port cards, delete the slot card, make a copy of FCxx-64, Change the slot number in row 1, and rename the worksheet. Similar for SX-6 cards.</t>
-    </r>
-  </si>
-  <si>
-    <t>ge9</t>
-  </si>
-  <si>
-    <t>ge8</t>
-  </si>
-  <si>
-    <t>ge7</t>
-  </si>
-  <si>
-    <t>ge6</t>
-  </si>
-  <si>
-    <t>ge5</t>
-  </si>
-  <si>
-    <t>ge4</t>
-  </si>
-  <si>
-    <t>ge3</t>
-  </si>
-  <si>
-    <t>ge2</t>
-  </si>
-  <si>
-    <t>ge1</t>
-  </si>
-  <si>
-    <t>ge0</t>
-  </si>
-  <si>
-    <t>CLI</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>The port number without the slot indicator. Note that the slot number is determined by the sheet header. This should not be changed.</t>
-  </si>
-  <si>
-    <t>The domain ID in hex. This must match the domain ID used on the "Switch_x" sheets for the FID. From the bottom up, this has been prefilled to match the DID from the previous port. It is common to set the DID for the first port (lowest port number) using an Excel "=" to the DID cell on the corresponding "Switch_x" sheet. The template is seeded with 1 for port 0 of the first slot. You should only need to change this for the first port of each logical switch.</t>
-  </si>
-  <si>
-    <t>This is the middle byte of the fibre channel address. The port address is always 0 for the first port in a logical switch. It can only be changed if you are binding addresses. Open systems SAN administrators usually do not care about fibre channel addresses. The typical exception is when its important to determine virtual channels since the virtual channel is determined by the address. Mainframe SAN administrators do care because the first two bytes of the fibre channel address are the link address. Furthermore, all addresses must be bound before ports in a FICON switch can be enabled. Port addresses will be set to the address used in this column after the logical switch is created. Since customers typically configure logical switches with contiguous address, similarly to the DID, cells are prefilled with 1+ the previous address. You will need to change this with the first port of a new logical switch.</t>
-  </si>
-  <si>
-    <t>DO NOT CHANGE. Since port addresses can change and the port numbering scheme can change based on switch type, the port index gives FOS a consistent way to reference physical ports.</t>
-  </si>
-  <si>
-    <t>DO NOT CHANGE. The link address is only relevant to mainframe SAN administrators. This field is automatically calculated. The most significant byte is the DID in hex. The least significant byte is the port address.</t>
-  </si>
-  <si>
-    <t>This is the Fabric ID of the corresponding switch on one of the "Switch_x" sheets. If there is no correspnding FID number on a "Switch_x" sheet, the port is ignored (no changes are made to the port). Ports with a corresponding "Switch_x" worksheet are moved to the logical switch with the same FID. Note that ports must be disabled and set to the factory defalult state before moving them. This is a FOS requirement. Similar to the DID, cells are prefilled with the previous cell value, so you will need to modify the FID number for each new logical switch.</t>
-  </si>
-  <si>
-    <t>As of FOS 9.2, not all port configuration settings were exposed in the API. This field takes a CLI command and executes it on that port. Long-distance settings are not exposed in the API, so, for example, to set the long-distance mode on a port to automatically calculate required buffer credits for 100 Km with the default frame size and VC link init 1, put the following in the cell: portcfglongdistance s/p LS 1 -distance 100. For the port, always use "s/p". The slot number will automatically be stripped out for fixed port switches. Typically, this field is only used for E-Ports. For readability, you can expand the column width. Use a carriage return to separate multiple commands. An easy way to enter cells with a carriage return in Excel is to use a plain text editor, such as Notepad or vi, then copy and paste them into the cell’s formula bar.</t>
-  </si>
-  <si>
-    <t>This is a comment field only. When using create_swconfig.py, it is pre-filled with RNID data for mainframes or a hash of name server and FDMI information for open systems.</t>
-  </si>
-  <si>
-    <t>Sets the port name. Only used when "off", "ficon -n", or "open -n" is selected for "Port Name" on the corresponding Switch_x worksheet.</t>
-  </si>
-  <si>
-    <t>Low Qos VC, Med Qos VC, and High Qos VC</t>
-  </si>
-  <si>
-    <t>DO NOT CHANGE. This is the virtual channel that will be used for the port. Consult the FOS Administrators Guide for details regarding virtual channels. Virtual channel information is useful for planning and evaluating virtual channel usage over ISLs. Typically, SAN administrators plan connections to the without giving the virtual channel usage any thought and only analyze virtual channel usage when ISL congestion is observed.</t>
+    <t>At the time switch_config.py was written, all port configurations were not available via the API. To support all port configurations via a script, CLI commands are executed via an SSH session. SSH and API sessions therefore must use the same login credentials.</t>
+  </si>
+  <si>
+    <t>When using CLI commands to configure the ports, the following rules apply:</t>
+  </si>
+  <si>
+    <t>CLI commands are only executed on disabled ports.</t>
+  </si>
+  <si>
+    <t>Only portcfg* commands are supported.</t>
+  </si>
+  <si>
+    <t>The script does not perform any syntax checking.</t>
+  </si>
+  <si>
+    <t>The error summary may not include all CLI errors.</t>
+  </si>
+  <si>
+    <t>Multiple CLI commands can be executed by putting each command string on separate lines within the cell. Use any plain text editor, such as Notepad or VI, to create text with line breaks to copy and paste into an Excel cell.</t>
+  </si>
+  <si>
+    <t>The port number is substituted for $p in the command string.</t>
+  </si>
+  <si>
+    <t>The port index number is substituted for $i in the command string.</t>
+  </si>
+  <si>
+    <t>Example: Set the long-distance mode on a port to automatically calculate required buffer credits for 100 Km with the default frame size and VC link init 1 using the port number.</t>
+  </si>
+  <si>
+    <t>portcfglongdistance $p LS 1 -distance 100</t>
+  </si>
+  <si>
+    <t>Example: Set a port for use as an E-Port only using the port index.</t>
+  </si>
+  <si>
+    <t>portcfgeport -i $i 2</t>
+  </si>
+  <si>
+    <t>Sets the port name. Only used when "Port Name" on the corresponding Switch_x worksheet is "off", "ficon -n", or "open -n".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,6 +1310,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1443,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1516,6 +1512,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2113,56 +2112,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C012626E-C51A-474B-9075-EB10C20BF755}">
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E352E3A2-B5A8-4BC7-8CDF-1625397C546D}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>296</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2197,58 +2184,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>290</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>290</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3315,11 +3302,11 @@
       <c r="C37" s="23"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
-      <c r="F37" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="34"/>
-      <c r="H37" s="30"/>
+      <c r="F37" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="4"/>
       <c r="J37" s="23"/>
       <c r="K37" s="14"/>
@@ -3355,11 +3342,11 @@
       <c r="C39" s="24"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="30"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="4"/>
       <c r="J39" s="24"/>
       <c r="K39" s="14"/>
@@ -3444,33 +3431,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="2:29" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -3483,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
@@ -3492,13 +3479,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>9</v>
@@ -3519,7 +3506,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>6</v>
@@ -3528,13 +3515,13 @@
         <v>5</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>9</v>
@@ -5498,10 +5485,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="F29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5563,10 +5550,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5679,33 +5666,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="2:29" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -5718,7 +5705,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
@@ -5727,13 +5714,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>9</v>
@@ -5754,7 +5741,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>6</v>
@@ -5767,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>9</v>
@@ -5849,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -7730,10 +7717,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="F29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -7795,10 +7782,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -7911,33 +7898,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="2:29" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -7950,7 +7937,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
@@ -7959,13 +7946,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>9</v>
@@ -7986,7 +7973,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>6</v>
@@ -7995,13 +7982,13 @@
         <v>5</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>9</v>
@@ -9965,10 +9952,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="F29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -10030,10 +10017,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -10146,33 +10133,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="2:29" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -10185,7 +10172,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
@@ -10194,13 +10181,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>9</v>
@@ -10221,7 +10208,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>6</v>
@@ -10230,13 +10217,13 @@
         <v>5</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>9</v>
@@ -12200,10 +12187,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="F29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -12265,10 +12252,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -12381,33 +12368,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="2:26" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -12420,7 +12407,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
@@ -12429,13 +12416,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>9</v>
@@ -12456,7 +12443,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>6</v>
@@ -12465,13 +12452,13 @@
         <v>5</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>9</v>
@@ -15080,10 +15067,10 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="30"/>
+      <c r="F37" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="31"/>
       <c r="H37" s="22"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -15145,10 +15132,10 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="30"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="22"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -15253,20 +15240,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="2:13" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -15279,7 +15266,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
@@ -15288,13 +15275,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>9</v>
@@ -15309,7 +15296,7 @@
     <row r="3" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C35" si="0">C5</f>
@@ -15334,7 +15321,7 @@
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
@@ -15359,7 +15346,7 @@
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
@@ -15384,7 +15371,7 @@
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
@@ -15409,7 +15396,7 @@
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
@@ -15434,7 +15421,7 @@
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
@@ -15459,7 +15446,7 @@
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
@@ -15484,7 +15471,7 @@
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
@@ -15509,7 +15496,7 @@
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
@@ -15534,7 +15521,7 @@
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
@@ -16542,10 +16529,10 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="30"/>
+      <c r="F39" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="31"/>
       <c r="H39" s="22"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -16583,10 +16570,10 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="30"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="22"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -16656,10 +16643,10 @@
         <v>279</v>
       </c>
       <c r="D1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16676,7 +16663,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16694,7 +16681,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16712,7 +16699,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -19100,82 +19087,82 @@
         <v>275</v>
       </c>
       <c r="D240" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -19437,11 +19424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08E057F-2613-4D44-9C9E-E55E0FDF2511}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B25305A-F5CA-402D-AA62-CFA9BA8EF53B}">
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19452,18 +19439,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -19471,23 +19458,23 @@
         <v>7</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -19495,7 +19482,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -19503,44 +19490,126 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>1</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <f>A18+1</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <f t="shared" ref="A20:A24" si="0">A19+1</f>
+        <v>3</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>367</v>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -19576,11 +19645,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -19643,7 +19712,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -19663,7 +19732,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -19679,24 +19748,24 @@
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -19738,7 +19807,7 @@
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -19768,52 +19837,52 @@
         <v>278</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -19900,33 +19969,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="2:29" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -19939,7 +20008,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
@@ -19948,13 +20017,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>9</v>
@@ -19975,7 +20044,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>6</v>
@@ -19984,13 +20053,13 @@
         <v>5</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>9</v>
@@ -21951,10 +22020,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="F29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -22016,10 +22085,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -22132,33 +22201,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="2:29" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -22171,7 +22240,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
@@ -22180,13 +22249,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>9</v>
@@ -22207,7 +22276,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>6</v>
@@ -22216,13 +22285,13 @@
         <v>5</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>9</v>
@@ -24186,10 +24255,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="F29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -24251,10 +24320,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -24367,33 +24436,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="2:29" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -24406,7 +24475,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
@@ -24415,13 +24484,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>9</v>
@@ -24442,7 +24511,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>6</v>
@@ -24451,13 +24520,13 @@
         <v>5</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>9</v>
@@ -26421,10 +26490,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="F29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -26486,10 +26555,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -26602,33 +26671,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="2:29" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -26641,7 +26710,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
@@ -26650,13 +26719,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>9</v>
@@ -26677,7 +26746,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>6</v>
@@ -26686,13 +26755,13 @@
         <v>5</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>9</v>
@@ -28656,10 +28725,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="F29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -28721,10 +28790,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -28832,58 +28901,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>290</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>290</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29949,11 +30018,11 @@
       <c r="C37" s="23"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
-      <c r="F37" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="34"/>
-      <c r="H37" s="30"/>
+      <c r="F37" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="14"/>
@@ -29990,11 +30059,11 @@
       <c r="C39" s="24"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="30"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="14"/>

--- a/X7-8_Switch_Configuration.xlsx
+++ b/X7-8_Switch_Configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Consoli\Documents\cs\scripts\brocade-rest-api-applications\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C3EE92-14A5-452A-A7BF-767A80F6BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BE1659-F272-4A7B-894B-2320AD8E75A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="315" windowWidth="20400" windowHeight="10575" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="405" windowWidth="19965" windowHeight="10470" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="62" r:id="rId1"/>
@@ -5643,7 +5643,7 @@
   <dimension ref="B1:AF33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5749,7 +5749,9 @@
       <c r="T2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="13"/>
+      <c r="U2" s="13" t="s">
+        <v>347</v>
+      </c>
       <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
@@ -5835,9 +5837,7 @@
         <f t="shared" ref="T4:T25" si="11">T5</f>
         <v>2</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>347</v>
-      </c>
+      <c r="U4" s="7"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="7">
@@ -19946,7 +19946,7 @@
   <dimension ref="B1:AF33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24412,7 +24412,7 @@
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -28883,7 +28883,7 @@
   <dimension ref="B1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
